--- a/additional-ig-content/Mapping_Concept_IG.xlsx
+++ b/additional-ig-content/Mapping_Concept_IG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1CQ2gHC2ZmgIBrDkdV9SyFg2QAdHnkNYF\ahdis-share\projects\148_BAG_2023-2025\ch-epreg\IG-Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\michaela\github\ch-epreg\additional-ig-content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5ECB07-8E22-4956-A646-F88DB97999A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5635A-B9C4-490B-8028-3876BAED7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1759">
   <si>
     <r>
       <rPr>
@@ -13815,9 +13815,6 @@
     <t>Rhesus-Inkompatibilität (bei vorangegangenen Schwangerschaften)</t>
   </si>
   <si>
-    <t>see comment above</t>
-  </si>
-  <si>
     <t>Chlamydia trachomatis Nachweis im Urin negativ</t>
   </si>
   <si>
@@ -13903,11 +13900,6 @@
     <t>FHIR IG Mapping</t>
   </si>
   <si>
-    <t>Composition.section:lab-subsections.
-section:bloodBankStudies.entry:bloodGroup
--&gt; CH EPREG Observation (Mother): Blood Group</t>
-  </si>
-  <si>
     <t>Additional Observation entries, representing the specific examination/question can be added in the section pregProgress.  
 See also the according guidance section in the IG for details: guidance-vs-mapping.html#further-examinations</t>
   </si>
@@ -14036,304 +14028,323 @@
     <t>Indications de conflits graves, p. ex. violence domestique</t>
   </si>
   <si>
-    <t>Same approach as MIO Mutterpass:
-https://simplifier.net/packages/kbv.mio.mutterpass/1.1.0/files/463225</t>
-  </si>
-  <si>
-    <t>Same approach as MIO Mutterpass: 
-https://simplifier.net/packages/kbv.mio.mutterpass/1.1.0/files/463182</t>
-  </si>
-  <si>
     <t>CH EPREG Patient: Child
 Patient.identifier:LocalPid</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelled according to the International Birth and Child Model Implementation Guide and the MIO Mutterpass:
-- https://hl7.org/fhir/uv/ibcm/2024Sep/StructureDefinition-ibcm-fetal-record.html
-- https://simplifier.net/packages/kbv.mio.mutterpass/1.1.0/files/463282
+    <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
+  </si>
+  <si>
+    <t>7.6.4.1.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>7.6.5.1.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>7.6.6.2.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>Datum, an dem die Schwangerschaft durch medizinisches Personal festgestellt wurde.</t>
+  </si>
+  <si>
+    <t>738070007 | Estimated date of delivery from antenatal ultrasound scan (observable entity)</t>
+  </si>
+  <si>
+    <t>Gibt an, ob die schwangere Frau die Pränataldiagnostik ablehnt oder nicht.</t>
+  </si>
+  <si>
+    <t>10.2.3.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>Bemerkungen zum durchgeführten Pränataldiagnostik Test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Schwangerschaftswoche in der die Ultraschalluntersuchung stattgefunden hat
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
+    </r>
+  </si>
+  <si>
+    <t>75367002 | Blood pressure (observable entity)
+LOINC: 85354-9 | Blood pressure panel with all children optional</t>
+  </si>
+  <si>
+    <t>14.2.2.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>In diesem Element ist es möglich, im Verlauf der</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Untersuchung die Angabe zur Schwangerschaftswoche zu korrigieren bzw. anzupassen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1157308000 | Corrected fetal gestational age in weeks and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>days (observable entity)</t>
+    </r>
+  </si>
+  <si>
+    <t>14.2.3.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Schwangerschaftswoche in der das CTG durchgeführt wurde
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
+    </r>
+  </si>
+  <si>
+    <t>15.2.2. Schwangerschaftswoche + Tage</t>
+  </si>
+  <si>
+    <t>15.2.2.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>16.2.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>Dauer der jeweiligen Phase in Stunden. 2 Nachkommastellen.</t>
+  </si>
+  <si>
+    <t>Datum, an welchem das Kind unauffällig entlassen werden konnte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gibt an, ob ein gewisser Leistungserbringer vorhanden bzw. nicht vorhanden ist. So kann zum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beispiel explizit gesagt werden, dass die Patientin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>keinen Hausarzt besitzt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gibt an, ob die Anmeldung beim geplanten Geburtsort bereits stattgefunden hat oder nicht.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anzahl der Schwangerschaften inklusive der aktuellen Schwangerschaft
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>161732006 | Gravida (observable entity)</t>
+    </r>
+  </si>
+  <si>
+    <t>7.6.3.1.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
+  </si>
+  <si>
+    <t>Composition.section:pregProgress.entry:abdominalCircumference
+CH EPREG Observation (Mother): Abdominal Circumference
+Observation.valueQuantity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Schwangerschaftswoche in der die Geburt stattgefunden hat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
+    </r>
+  </si>
+  <si>
+    <t>13.3.6. Hauteur utérine</t>
+  </si>
+  <si>
+    <t>Composition.section:pregProgress.entry:fundusHeight
+CH EPREG Observation (Mother): Fundus Height
+Observation.valueString</t>
+  </si>
+  <si>
+    <t>Modelled accoring CH LAB-Report, see note below</t>
+  </si>
+  <si>
+    <t>see comment about gestational age above</t>
+  </si>
+  <si>
+    <t>see note about Observation for mother and (unborn) child below</t>
   </si>
   <si>
     <t>Modelling the CH EPREG Observations for the (unborn) child reflects the need of the concept (infos about mother and infos about (unborn) child) and are based on the FHIR base spec and the IBCM IG:
 - Observation.subject -&gt; Patient: (unborn) Child
 - Observation.encounter -&gt; Encounter: Child
 In the MIO Mutterpass, it is handled differently for the fetus and the child:
-- Fetus: Observation.subject -&gt; Patient: Mother (https://mio.kbv.de/display/MP1X1X0/Observation_Blood_Group_Serology_Fetus), Observation.bodySite -&gt; Fetus
-- Child: Observation.subject -&gt; Patient: Child (https://mio.kbv.de/display/MP1X1X0/Observation_Blood_Group_Serology_Child)
-The Dutch (Nictiz) differenciate if the fetus/child does have a record or not (https://simplifier.net/Geboortezorg-STU3/bc-FetalHeartRate/~related)
+- Fetus: Observation.subject -&gt; Patient: Mother and Observation.bodySite -&gt; Fetus
+- Child: Observation.subject -&gt; Patient: Child
+The Dutch (Nictiz) differenciate if the fetus/child does have a record or not:
 - Record: Observation.subject -&gt; Patient: Child (blank focus extension)
 - No record: Observation.subject -&gt; Patient: Mother &amp; focus extension refers to fetus BodySite</t>
   </si>
   <si>
-    <t>Same approach as MIO Mutterpass, but we have a ValueSet binding for Observation.valueCodeableConcept (defined in the concept paper), MIO uses valueString:
-https://simplifier.net/packages/kbv.mio.mutterpass/1.1.0/files/463197</t>
-  </si>
-  <si>
-    <t>https://chat.fhir.org/#narrow/channel/207835-IPS/topic/Blood.20Group
-The values for blood group and Rhesus factor are given as a single value (Observation.value), either one or the other, or both combined.
-This is compatible with CH LAB-Report (based on EU LAB-Report) and also planned in IPS:
-- https://fhir.ch/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-laboratory.html 
-  Observation.value with additional bindings to Results Blood Group VS
-- https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-pathology-uv-ips.html
-  Observation.value binds to VS which includes codes from SCT where concept descends from 365636006 (Blood group)
--&gt; https://hl7.org/fhir/uv/ips/STU1.1/ValueSet-results-blood-group-snomed-ct-ips-free-set.html
-- https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-pathology-uv-ips.html -&gt; https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-results-coded-values-laboratory-pathology-uv-ips.html (Include codes fromhttp://snomed.info/sct where concept descends from 365636006 (Blood group))
-This approach is already in use in Switzerland:
-- https://doc.mednet.swiss/fhir/ValueSet-mni-obs-bloodGroup.html
-MIO Mutterpass does it different using components (uses the same SCT code for Observation.code):
-- https://mio.kbv.de/display/MP1X1X0/Observation_Blood_Group_Serology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">Height of gravid uterus (de: Fundusstand) is not the same as Symphysen-Fundus-Abstand (SY-FU).
+- Fundus height: example value Rb/2 (represented in the IG)
+- SY-FU: measured in cm (not represented in the IG)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:weightGain
 -&gt; CH EPREG Observation (Mother): Weight Gain
 Observation.valueQuantity</t>
   </si>
   <si>
-    <t>https://hub.kbv.de/display/MP1X1X0/Observation_Baseline_Weight_Mother</t>
-  </si>
-  <si>
-    <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
-  </si>
-  <si>
-    <t>7.6.4.1.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>7.6.5.1.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>7.6.6.2.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>Datum, an dem die Schwangerschaft durch medizinisches Personal festgestellt wurde.</t>
-  </si>
-  <si>
-    <t>738070007 | Estimated date of delivery from antenatal ultrasound scan (observable entity)</t>
-  </si>
-  <si>
-    <t>Gibt an, ob die schwangere Frau die Pränataldiagnostik ablehnt oder nicht.</t>
-  </si>
-  <si>
-    <t>10.2.3.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>Bemerkungen zum durchgeführten Pränataldiagnostik Test</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Schwangerschaftswoche in der die Ultraschalluntersuchung stattgefunden hat
+    <t>Composition.section:pregProgress.entry:vaginaFeature
+-&gt; CH EPREG Observation (Mother): Vagina Feature
+Observation.valueString</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-subsections.
+section:bloodBankStudies.entry:bloodGroup
+-&gt; CH EPREG Observation (Lab): Blood Group</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-subsections.
+section:bloodBankStudies.entry:fetalRhD
+-&gt; CH EPREG Observation (Lab): Fetal RhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The values for blood group and Rhesus (D) are given as a single value (Observation.value), either one or the other, or both combined.
+This approach is already in use in Switzerland and IPS:
+- https://doc.mednet.swiss/fhir/ValueSet-mni-obs-bloodGroup.html
+- https://hl7.org/fhir/uv/ips/STU1.1/ValueSet-results-blood-group-snomed-ct-ips-free-set.html
+See discussion about value vs. component.value: https://chat.fhir.org/#narrow/channel/179256-Orders-and-Observation-WG/topic/Blood.20Type
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
-    </r>
-  </si>
-  <si>
-    <t>75367002 | Blood pressure (observable entity)
-LOINC: 85354-9 | Blood pressure panel with all children optional</t>
-  </si>
-  <si>
-    <t>14.2.2.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>In diesem Element ist es möglich, im Verlauf der</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Untersuchung die Angabe zur Schwangerschaftswoche zu korrigieren bzw. anzupassen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1157308000 | Corrected fetal gestational age in weeks and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>days (observable entity)</t>
-    </r>
-  </si>
-  <si>
-    <t>14.2.3.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Schwangerschaftswoche in der das CTG durchgeführt wurde
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
-    </r>
-  </si>
-  <si>
-    <t>15.2.2. Schwangerschaftswoche + Tage</t>
-  </si>
-  <si>
-    <t>15.2.2.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>16.2.2. Anzahl an Tagen in laufender Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>Dauer der jeweiligen Phase in Stunden. 2 Nachkommastellen.</t>
-  </si>
-  <si>
-    <t>Datum, an welchem das Kind unauffällig entlassen werden konnte</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gibt an, ob ein gewisser Leistungserbringer vorhanden bzw. nicht vorhanden ist. So kann zum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Beispiel explizit gesagt werden, dass die Patientin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>keinen Hausarzt besitzt.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gibt an, ob die Anmeldung beim geplanten Geburtsort bereits stattgefunden hat oder nicht.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Anzahl der Schwangerschaften inklusive der aktuellen Schwangerschaft
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>161732006 | Gravida (observable entity)</t>
-    </r>
-  </si>
-  <si>
-    <t>7.6.3.1.2.  Anzahl an Tagen in Schwangerschaftswoche</t>
-  </si>
-  <si>
-    <t>Composition.section:pregProgress.entry:abdominalCircumference
-CH EPREG Observation (Mother): Abdominal Circumference
-Observation.valueQuantity</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Schwangerschaftswoche in der die Geburt stattgefunden hat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1156738004 | Fetal gestational age in weeks and days (observable entity)</t>
-    </r>
-  </si>
-  <si>
-    <t>13.3.6. Hauteur utérine</t>
-  </si>
-  <si>
-    <t>Same approach as MIO Mutterpass:
-https://simplifier.net/packages/mio.kbv.mutterpass/1.0.0/files/298120</t>
-  </si>
-  <si>
-    <t>Composition.section:pregProgress.entry:fundusHeight
-CH EPREG Observation (Mother): Fundus Height
+  </si>
+  <si>
+    <t>Guidance VS Mapping: Blood Group &amp; Rhesus,
+Guidance VS Mapping: Fetal RhD</t>
+  </si>
+  <si>
+    <t>Composition.section:pregProgress.entry:urineFinding
+CH EPREG Observation (Mother): Urine Finding
 Observation.valueString</t>
+  </si>
+  <si>
+    <t>Observation.component:protein.valueString</t>
+  </si>
+  <si>
+    <t>Observation.component:glucose.valueString</t>
+  </si>
+  <si>
+    <t>Observation.component:nitrite.valueString</t>
+  </si>
+  <si>
+    <t>Observation.component:bacteria.valueString</t>
   </si>
 </sst>
 </file>
@@ -14479,7 +14490,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14530,12 +14541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14750,9 +14755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -14798,16 +14800,19 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -15122,9 +15127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34765625" defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
@@ -15141,13 +15146,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="14" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1658</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1659</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>583</v>
@@ -15162,7 +15167,7 @@
         <v>586</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -15200,7 +15205,7 @@
     </row>
     <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A4" s="46" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>1553</v>
@@ -15219,7 +15224,7 @@
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="13" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -15965,7 +15970,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A42" s="43"/>
       <c r="B42" s="29" t="s">
         <v>60</v>
@@ -16426,7 +16431,7 @@
         <v>8</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -16538,7 +16543,7 @@
     </row>
     <row r="71" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A71" s="13" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>93</v>
@@ -16557,7 +16562,7 @@
         <v>1582</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -16856,7 +16861,7 @@
         <v>8</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17554,7 +17559,7 @@
         <v>7</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="41.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -17610,7 +17615,7 @@
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="37" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17635,7 +17640,7 @@
     </row>
     <row r="130" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B130" s="29" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>1190</v>
@@ -17758,7 +17763,7 @@
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="37" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17783,7 +17788,7 @@
     </row>
     <row r="138" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B138" s="29" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>1198</v>
@@ -17877,7 +17882,7 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="143" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B143" s="18" t="s">
         <v>181</v>
       </c>
@@ -17908,7 +17913,7 @@
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="37" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17933,7 +17938,7 @@
     </row>
     <row r="146" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B146" s="29" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>1206</v>
@@ -18078,7 +18083,7 @@
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="36" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18103,7 +18108,7 @@
     </row>
     <row r="155" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B155" s="18" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>1215</v>
@@ -18706,7 +18711,7 @@
         <v>4</v>
       </c>
       <c r="G187" s="18" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18800,7 +18805,7 @@
         <v>4</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18950,7 +18955,7 @@
         <v>8</v>
       </c>
       <c r="G200" s="29" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19022,7 +19027,7 @@
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="37" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="205" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -19047,7 +19052,7 @@
     </row>
     <row r="206" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B206" s="29" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>1266</v>
@@ -19102,7 +19107,7 @@
         <v>3</v>
       </c>
       <c r="G208" s="29" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="8" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -19137,10 +19142,13 @@
       </c>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
-    </row>
-    <row r="211" spans="1:8" ht="222.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H210" s="13" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A211" s="13" t="s">
-        <v>1677</v>
+        <v>1750</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>263</v>
@@ -19156,8 +19164,8 @@
       </c>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
-      <c r="H211" s="53" t="s">
-        <v>1722</v>
+      <c r="H211" s="71" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -19248,60 +19256,66 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A216" s="42"/>
-      <c r="B216" s="29" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C216" s="5" t="s">
+    <row r="216" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A216" s="71" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>1276</v>
       </c>
-      <c r="D216" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E216" s="2" t="s">
+      <c r="D216" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
     </row>
     <row r="217" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A217" s="42"/>
-      <c r="B217" s="29" t="s">
+      <c r="A217" s="71" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B217" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="12" t="s">
         <v>1277</v>
       </c>
-      <c r="D217" s="31" t="s">
+      <c r="D217" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F217" s="29" t="s">
+      <c r="F217" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G217" s="4"/>
+      <c r="G217" s="12"/>
     </row>
     <row r="218" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A218" s="42"/>
-      <c r="B218" s="29" t="s">
+      <c r="A218" s="71" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B218" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C218" s="15" t="s">
+      <c r="C218" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="D218" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" s="2" t="s">
+      <c r="D218" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F218" s="18" t="s">
+      <c r="F218" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G218" s="34" t="s">
+      <c r="G218" s="33" t="s">
         <v>1612</v>
       </c>
     </row>
@@ -19326,7 +19340,7 @@
         <v>271</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19396,7 +19410,7 @@
     </row>
     <row r="223" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A223" s="13" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>275</v>
@@ -19415,7 +19429,7 @@
     </row>
     <row r="224" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A224" s="13" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>276</v>
@@ -19432,12 +19446,12 @@
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
       <c r="H224" s="13" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A225" s="13" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>277</v>
@@ -19460,7 +19474,7 @@
     </row>
     <row r="226" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A226" s="13" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>279</v>
@@ -19483,7 +19497,7 @@
     </row>
     <row r="227" spans="1:8" ht="20.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A227" s="13" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>280</v>
@@ -19504,12 +19518,12 @@
         <v>1628</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A228" s="13" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>281</v>
@@ -19971,7 +19985,7 @@
     </row>
     <row r="254" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A254" s="13" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>307</v>
@@ -19991,7 +20005,7 @@
       <c r="G254" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="H254" s="72"/>
+      <c r="H254" s="69"/>
     </row>
     <row r="255" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A255" s="13" t="s">
@@ -20037,7 +20051,7 @@
     </row>
     <row r="257" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A257" s="13" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>311</v>
@@ -20053,55 +20067,55 @@
       </c>
       <c r="F257" s="12"/>
       <c r="G257" s="19" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="H257" s="13" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A258" s="13" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B258" s="19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B258" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C258" s="70" t="s">
         <v>1317</v>
       </c>
-      <c r="D258" s="24" t="s">
+      <c r="D258" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E258" s="20" t="s">
+      <c r="E258" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F258" s="19" t="s">
+      <c r="F258" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G258" s="19" t="s">
+      <c r="G258" s="26" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A259" s="13" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B259" s="19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B259" s="26" t="s">
         <v>1580</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C259" s="27" t="s">
         <v>1318</v>
       </c>
-      <c r="D259" s="24" t="s">
+      <c r="D259" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E259" s="20" t="s">
+      <c r="E259" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F259" s="19" t="s">
+      <c r="F259" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G259" s="19" t="s">
+      <c r="G259" s="26" t="s">
         <v>1590</v>
       </c>
     </row>
@@ -20123,10 +20137,13 @@
       </c>
       <c r="F260" s="12"/>
       <c r="G260" s="12"/>
+      <c r="H260" s="13" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="261" spans="1:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A261" s="13" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>313</v>
@@ -20147,38 +20164,36 @@
         <v>314</v>
       </c>
       <c r="H261" s="13" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A262" s="42" t="s">
-        <v>1723</v>
+      <c r="A262" s="71" t="s">
+        <v>1748</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C262" s="10" t="s">
+      <c r="C262" s="11" t="s">
         <v>1321</v>
       </c>
-      <c r="D262" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E262" s="3" t="s">
+      <c r="D262" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F262" s="29" t="s">
+      <c r="F262" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G262" s="29" t="s">
+      <c r="G262" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="H262" s="70" t="s">
-        <v>1724</v>
-      </c>
+      <c r="H262" s="72"/>
     </row>
     <row r="263" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A263" s="13" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>317</v>
@@ -20194,15 +20209,15 @@
       </c>
       <c r="F263" s="12"/>
       <c r="G263" s="28" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="39.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A264" s="13" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B264" s="19" t="s">
         <v>318</v>
@@ -20225,7 +20240,7 @@
     </row>
     <row r="265" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A265" s="13" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B265" s="19" t="s">
         <v>320</v>
@@ -20246,108 +20261,118 @@
         <v>321</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A266" s="42"/>
+    <row r="266" spans="1:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A266" s="71" t="s">
+        <v>1754</v>
+      </c>
       <c r="B266" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C266" s="10" t="s">
+      <c r="C266" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="D266" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E266" s="3" t="s">
+      <c r="D266" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F266" s="4"/>
-      <c r="G266" s="37" t="s">
+      <c r="F266" s="12"/>
+      <c r="G266" s="28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A267" s="42"/>
+      <c r="A267" s="71" t="s">
+        <v>1755</v>
+      </c>
       <c r="B267" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="11" t="s">
         <v>1326</v>
       </c>
-      <c r="D267" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E267" s="2" t="s">
+      <c r="D267" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F267" s="18" t="s">
+      <c r="F267" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G267" s="36" t="s">
+      <c r="G267" s="28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A268" s="42"/>
+      <c r="A268" s="71" t="s">
+        <v>1756</v>
+      </c>
       <c r="B268" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C268" s="10" t="s">
+      <c r="C268" s="11" t="s">
         <v>1327</v>
       </c>
-      <c r="D268" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E268" s="3" t="s">
+      <c r="D268" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F268" s="29" t="s">
+      <c r="F268" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G268" s="37" t="s">
+      <c r="G268" s="28" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A269" s="42"/>
+      <c r="A269" s="71" t="s">
+        <v>1757</v>
+      </c>
       <c r="B269" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="D269" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E269" s="2" t="s">
+      <c r="D269" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F269" s="18" t="s">
+      <c r="F269" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G269" s="5"/>
+      <c r="G269" s="12"/>
     </row>
     <row r="270" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A270" s="42"/>
+      <c r="A270" s="71" t="s">
+        <v>1758</v>
+      </c>
       <c r="B270" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="C270" s="11" t="s">
         <v>1329</v>
       </c>
-      <c r="D270" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E270" s="3" t="s">
+      <c r="D270" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F270" s="29" t="s">
+      <c r="F270" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G270" s="4"/>
+      <c r="G270" s="12"/>
     </row>
     <row r="271" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A271" s="69" t="s">
-        <v>1749</v>
+      <c r="A271" s="13" t="s">
+        <v>1739</v>
       </c>
       <c r="B271" s="19" t="s">
         <v>330</v>
@@ -20366,15 +20391,15 @@
       </c>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A272" s="69" t="s">
-        <v>1753</v>
+    <row r="272" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A272" s="13" t="s">
+        <v>1742</v>
       </c>
       <c r="B272" s="19" t="s">
         <v>331</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="D272" s="24" t="s">
         <v>13</v>
@@ -20389,27 +20414,29 @@
         <v>332</v>
       </c>
       <c r="H272" s="13" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A273" s="42"/>
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A273" s="71" t="s">
+        <v>1749</v>
+      </c>
       <c r="B273" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="D273" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E273" s="2" t="s">
+      <c r="D273" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F273" s="18" t="s">
+      <c r="F273" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G273" s="5"/>
+      <c r="G273" s="12"/>
     </row>
     <row r="274" spans="1:8" ht="70.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A274" s="13" t="s">
@@ -20430,7 +20457,7 @@
       <c r="F274" s="12"/>
       <c r="G274" s="12"/>
       <c r="H274" s="13" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20458,7 +20485,7 @@
     </row>
     <row r="276" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A276" s="13" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B276" s="19" t="s">
         <v>336</v>
@@ -20477,7 +20504,7 @@
       </c>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:8" ht="230.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" ht="186.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A277" s="13" t="s">
         <v>1633</v>
       </c>
@@ -20495,13 +20522,13 @@
       </c>
       <c r="F277" s="12"/>
       <c r="G277" s="12"/>
-      <c r="H277" s="69" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H277" s="13" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A278" s="13" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B278" s="19" t="s">
         <v>1595</v>
@@ -20521,13 +20548,10 @@
       <c r="G278" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="H278" s="13" t="s">
-        <v>1719</v>
-      </c>
     </row>
     <row r="279" spans="1:8" ht="67.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A279" s="40" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B279" s="19" t="s">
         <v>1643</v>
@@ -20547,13 +20571,10 @@
       <c r="G279" s="28" t="s">
         <v>1640</v>
       </c>
-      <c r="H279" s="13" t="s">
-        <v>1716</v>
-      </c>
     </row>
     <row r="280" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A280" s="40" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B280" s="19" t="s">
         <v>338</v>
@@ -20572,9 +20593,6 @@
       </c>
       <c r="G280" s="28" t="s">
         <v>1639</v>
-      </c>
-      <c r="H280" s="13" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20599,9 +20617,6 @@
       <c r="G281" s="28" t="s">
         <v>1579</v>
       </c>
-      <c r="H281" s="13" t="s">
-        <v>1721</v>
-      </c>
     </row>
     <row r="282" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B282" s="29" t="s">
@@ -20697,7 +20712,7 @@
     </row>
     <row r="287" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A287" s="13" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B287" s="19" t="s">
         <v>346</v>
@@ -20720,7 +20735,7 @@
     </row>
     <row r="288" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A288" s="13" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>348</v>
@@ -20760,7 +20775,7 @@
     </row>
     <row r="290" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A290" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>350</v>
@@ -20884,7 +20899,7 @@
     </row>
     <row r="296" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A296" s="22" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B296" s="19" t="s">
         <v>356</v>
@@ -21008,7 +21023,7 @@
     </row>
     <row r="302" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A302" s="22" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B302" s="19" t="s">
         <v>362</v>
@@ -21191,7 +21206,7 @@
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="18" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -21216,7 +21231,7 @@
     </row>
     <row r="313" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B313" s="18" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>1368</v>
@@ -21248,8 +21263,8 @@
         <v>2</v>
       </c>
       <c r="F314" s="4"/>
-      <c r="G314" s="71" t="s">
-        <v>1737</v>
+      <c r="G314" s="68" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -21274,7 +21289,7 @@
     </row>
     <row r="316" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B316" s="29" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>1371</v>
@@ -22164,7 +22179,7 @@
     </row>
     <row r="364" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B364" s="29" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="C364" s="10" t="s">
         <v>1418</v>
@@ -22177,7 +22192,7 @@
       </c>
       <c r="F364" s="4"/>
       <c r="G364" s="29" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="365" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -22202,7 +22217,7 @@
     </row>
     <row r="366" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B366" s="29" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>1420</v>
@@ -22693,7 +22708,7 @@
       </c>
       <c r="F393" s="5"/>
       <c r="G393" s="18" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -22718,7 +22733,7 @@
     </row>
     <row r="395" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B395" s="18" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>1448</v>
@@ -22805,7 +22820,7 @@
         <v>6</v>
       </c>
       <c r="G399" s="18" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24007,7 +24022,7 @@
       </c>
       <c r="F464" s="4"/>
       <c r="G464" s="37" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="465" spans="2:7" ht="60.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24239,7 +24254,7 @@
         <v>4</v>
       </c>
       <c r="G476" s="29" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="477" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24333,2464 +24348,2464 @@
   <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B262" sqref="B262"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.75" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="35.09765625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="68.6484375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="68.046875" style="61" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="63"/>
+    <col min="1" max="1" width="40.3984375" style="60" customWidth="1"/>
+    <col min="2" max="2" width="68.6484375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="68.046875" style="60" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="57" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:3" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A1" s="55" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>591</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>595</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>597</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>599</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58" t="s">
         <v>601</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>603</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>611</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B13" s="64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B14" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B15" s="64" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B16" s="63" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B17" s="61" t="s">
         <v>1697</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B13" s="65" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B14" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B15" s="65" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C15" s="62" t="s">
+      <c r="C17" s="64" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B18" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B19" s="61" t="s">
+        <v>616</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B21" s="64" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B22" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B23" s="64" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B25" s="61" t="s">
+        <v>625</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B26" s="63" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B27" s="61" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B28" s="63" t="s">
+        <v>628</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B29" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B30" s="63" t="s">
+        <v>630</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B31" s="61" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B32" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B33" s="61" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B34" s="63" t="s">
+        <v>634</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B35" s="61" t="s">
+        <v>635</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B37" s="64" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B38" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B39" s="64" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
+      <c r="A40" s="57" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>641</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A41" s="54"/>
+      <c r="B41" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="54"/>
+      <c r="B42" s="66" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A43" s="54"/>
+      <c r="B43" s="66" t="s">
+        <v>645</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A44" s="54"/>
+      <c r="B44" s="53">
+        <v>0</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58" t="s">
+        <v>647</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B46" s="61" t="s">
+        <v>649</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B47" s="63" t="s">
+        <v>651</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A48" s="57"/>
+      <c r="B48" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B49" s="61" t="s">
+        <v>655</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B50" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B51" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A52" s="57"/>
+      <c r="B52" s="58" t="s">
+        <v>661</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B53" s="61" t="s">
+        <v>663</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B54" s="63" t="s">
+        <v>665</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B55" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B56" s="63" t="s">
+        <v>669</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B57" s="61" t="s">
+        <v>671</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B58" s="63" t="s">
+        <v>673</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B59" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B60" s="63" t="s">
+        <v>677</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B61" s="61" t="s">
+        <v>678</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B62" s="63" t="s">
+        <v>680</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A63" s="57"/>
+      <c r="B63" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B64" s="61" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B65" s="63" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B66" s="61" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A67" s="57"/>
+      <c r="B67" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B68" s="61" t="s">
+        <v>692</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B69" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="C69" s="63" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B70" s="61" t="s">
+        <v>696</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B71" s="63" t="s">
+        <v>698</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A72" s="57"/>
+      <c r="B72" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B73" s="61" t="s">
+        <v>702</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B74" s="63" t="s">
+        <v>704</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B75" s="61" t="s">
+        <v>706</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B76" s="63" t="s">
+        <v>708</v>
+      </c>
+      <c r="C76" s="63" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A77" s="57"/>
+      <c r="B77" s="58" t="s">
+        <v>710</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B78" s="61" t="s">
+        <v>712</v>
+      </c>
+      <c r="C78" s="61" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B79" s="63" t="s">
+        <v>714</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B80" s="61" t="s">
+        <v>716</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A81" s="57"/>
+      <c r="B81" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B82" s="61" t="s">
+        <v>720</v>
+      </c>
+      <c r="C82" s="61" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B83" s="63" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B84" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="C84" s="61" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B85" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="C85" s="63" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B86" s="61" t="s">
+        <v>726</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B87" s="63" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B88" s="61" t="s">
+        <v>680</v>
+      </c>
+      <c r="C88" s="61" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A89" s="57"/>
+      <c r="B89" s="58" t="s">
+        <v>727</v>
+      </c>
+      <c r="C89" s="57" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B90" s="61" t="s">
+        <v>729</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B91" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B92" s="61" t="s">
+        <v>733</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B93" s="63" t="s">
+        <v>735</v>
+      </c>
+      <c r="C93" s="63" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B94" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="C94" s="61" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B95" s="63" t="s">
+        <v>739</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A96" s="57"/>
+      <c r="B96" s="58" t="s">
+        <v>741</v>
+      </c>
+      <c r="C96" s="58" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B97" s="61" t="s">
+        <v>597</v>
+      </c>
+      <c r="C97" s="61" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B98" s="63" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B99" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B100" s="63" t="s">
+        <v>744</v>
+      </c>
+      <c r="C100" s="63" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A101" s="57" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>745</v>
+      </c>
+      <c r="C101" s="58" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A102" s="54"/>
+      <c r="B102" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="C102" s="66" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A103" s="54"/>
+      <c r="B103" s="66" t="s">
+        <v>748</v>
+      </c>
+      <c r="C103" s="66" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A104" s="54"/>
+      <c r="B104" s="66" t="s">
+        <v>750</v>
+      </c>
+      <c r="C104" s="66" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A105" s="57"/>
+      <c r="B105" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="C105" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B106" s="61" t="s">
+        <v>754</v>
+      </c>
+      <c r="C106" s="61" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B107" s="63" t="s">
+        <v>755</v>
+      </c>
+      <c r="C107" s="63" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B108" s="61" t="s">
+        <v>757</v>
+      </c>
+      <c r="C108" s="61" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B109" s="63" t="s">
+        <v>759</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B110" s="61" t="s">
+        <v>760</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
+      <c r="A111" s="57" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>761</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A112" s="54"/>
+      <c r="B112" s="66" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C112" s="66" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A113" s="54"/>
+      <c r="B113" s="66" t="s">
+        <v>763</v>
+      </c>
+      <c r="C113" s="66" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A114" s="54"/>
+      <c r="B114" s="66" t="s">
+        <v>765</v>
+      </c>
+      <c r="C114" s="66" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A115" s="54"/>
+      <c r="B115" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="C115" s="66" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A116" s="54"/>
+      <c r="B116" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="C116" s="66" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A117" s="54"/>
+      <c r="B117" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="C117" s="66" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A118" s="54"/>
+      <c r="B118" s="66" t="s">
+        <v>773</v>
+      </c>
+      <c r="C118" s="66" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A119" s="54"/>
+      <c r="B119" s="66" t="s">
+        <v>774</v>
+      </c>
+      <c r="C119" s="66" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A120" s="54"/>
+      <c r="B120" s="66" t="s">
+        <v>776</v>
+      </c>
+      <c r="C120" s="66" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A121" s="54"/>
+      <c r="B121" s="66" t="s">
+        <v>778</v>
+      </c>
+      <c r="C121" s="66" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A122" s="54"/>
+      <c r="B122" s="67" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C122" s="66" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A123" s="54"/>
+      <c r="B123" s="67" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C123" s="66" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A124" s="54"/>
+      <c r="B124" s="66" t="s">
+        <v>780</v>
+      </c>
+      <c r="C124" s="66" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A125" s="54"/>
+      <c r="B125" s="66" t="s">
+        <v>782</v>
+      </c>
+      <c r="C125" s="66" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A126" s="54"/>
+      <c r="B126" s="66" t="s">
+        <v>784</v>
+      </c>
+      <c r="C126" s="66" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A127" s="54"/>
+      <c r="B127" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="C127" s="66" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A128" s="54"/>
+      <c r="B128" s="66" t="s">
+        <v>788</v>
+      </c>
+      <c r="C128" s="66" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A129" s="54"/>
+      <c r="B129" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="C129" s="66" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A130" s="54"/>
+      <c r="B130" s="66" t="s">
+        <v>792</v>
+      </c>
+      <c r="C130" s="66" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A131" s="54"/>
+      <c r="B131" s="66" t="s">
+        <v>794</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A132" s="54"/>
+      <c r="B132" s="66" t="s">
+        <v>796</v>
+      </c>
+      <c r="C132" s="66" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A133" s="54"/>
+      <c r="B133" s="66" t="s">
+        <v>798</v>
+      </c>
+      <c r="C133" s="66" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A134" s="54"/>
+      <c r="B134" s="66" t="s">
+        <v>799</v>
+      </c>
+      <c r="C134" s="66" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A135" s="54"/>
+      <c r="B135" s="66" t="s">
+        <v>800</v>
+      </c>
+      <c r="C135" s="66" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A136" s="54"/>
+      <c r="B136" s="66" t="s">
+        <v>801</v>
+      </c>
+      <c r="C136" s="66" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A137" s="54"/>
+      <c r="B137" s="67" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C137" s="67" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A138" s="54"/>
+      <c r="B138" s="66" t="s">
+        <v>802</v>
+      </c>
+      <c r="C138" s="66" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A139" s="54"/>
+      <c r="B139" s="66" t="s">
+        <v>804</v>
+      </c>
+      <c r="C139" s="67" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A140" s="54"/>
+      <c r="B140" s="66" t="s">
+        <v>805</v>
+      </c>
+      <c r="C140" s="66" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A141" s="54"/>
+      <c r="B141" s="66" t="s">
+        <v>807</v>
+      </c>
+      <c r="C141" s="66" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A142" s="54"/>
+      <c r="B142" s="66" t="s">
+        <v>808</v>
+      </c>
+      <c r="C142" s="66" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A143" s="54"/>
+      <c r="B143" s="66" t="s">
+        <v>810</v>
+      </c>
+      <c r="C143" s="66" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A144" s="54"/>
+      <c r="B144" s="66" t="s">
+        <v>812</v>
+      </c>
+      <c r="C144" s="66" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A145" s="54"/>
+      <c r="B145" s="66" t="s">
+        <v>814</v>
+      </c>
+      <c r="C145" s="66" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A146" s="54"/>
+      <c r="B146" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="C146" s="66" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A147" s="54"/>
+      <c r="B147" s="66" t="s">
+        <v>817</v>
+      </c>
+      <c r="C147" s="66" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A148" s="54"/>
+      <c r="B148" s="66" t="s">
+        <v>819</v>
+      </c>
+      <c r="C148" s="66" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A149" s="54"/>
+      <c r="B149" s="66" t="s">
+        <v>821</v>
+      </c>
+      <c r="C149" s="66" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A150" s="54"/>
+      <c r="B150" s="66" t="s">
+        <v>823</v>
+      </c>
+      <c r="C150" s="66" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A151" s="54"/>
+      <c r="B151" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="C151" s="66" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A152" s="57"/>
+      <c r="B152" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="C152" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B153" s="61" t="s">
+        <v>771</v>
+      </c>
+      <c r="C153" s="61" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B154" s="63" t="s">
+        <v>790</v>
+      </c>
+      <c r="C154" s="63" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B155" s="61" t="s">
+        <v>792</v>
+      </c>
+      <c r="C155" s="61" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B156" s="63" t="s">
+        <v>796</v>
+      </c>
+      <c r="C156" s="63" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="59" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A157" s="57" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B157" s="58" t="s">
+        <v>827</v>
+      </c>
+      <c r="C157" s="58" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A158" s="54"/>
+      <c r="B158" s="66" t="s">
+        <v>829</v>
+      </c>
+      <c r="C158" s="66" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A159" s="54"/>
+      <c r="B159" s="66" t="s">
+        <v>831</v>
+      </c>
+      <c r="C159" s="66" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A160" s="54"/>
+      <c r="B160" s="66" t="s">
+        <v>833</v>
+      </c>
+      <c r="C160" s="66" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A161" s="54"/>
+      <c r="B161" s="66" t="s">
+        <v>835</v>
+      </c>
+      <c r="C161" s="66" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A162" s="54"/>
+      <c r="B162" s="66" t="s">
+        <v>837</v>
+      </c>
+      <c r="C162" s="66" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A163" s="54"/>
+      <c r="B163" s="66" t="s">
+        <v>839</v>
+      </c>
+      <c r="C163" s="66" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A164" s="54"/>
+      <c r="B164" s="66" t="s">
+        <v>841</v>
+      </c>
+      <c r="C164" s="67" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
+      <c r="A165" s="57" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B165" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="C165" s="58" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A166" s="54"/>
+      <c r="B166" s="66" t="s">
+        <v>844</v>
+      </c>
+      <c r="C166" s="66" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A167" s="54"/>
+      <c r="B167" s="66" t="s">
+        <v>846</v>
+      </c>
+      <c r="C167" s="66" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A168" s="54"/>
+      <c r="B168" s="66" t="s">
+        <v>848</v>
+      </c>
+      <c r="C168" s="66" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A169" s="54"/>
+      <c r="B169" s="66" t="s">
+        <v>849</v>
+      </c>
+      <c r="C169" s="66" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A170" s="54"/>
+      <c r="B170" s="66" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C170" s="67" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A171" s="54"/>
+      <c r="B171" s="66" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C171" s="67" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A172" s="54"/>
+      <c r="B172" s="66" t="s">
+        <v>850</v>
+      </c>
+      <c r="C172" s="66" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A173" s="54"/>
+      <c r="B173" s="66" t="s">
+        <v>852</v>
+      </c>
+      <c r="C173" s="66" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A174" s="54"/>
+      <c r="B174" s="66" t="s">
+        <v>854</v>
+      </c>
+      <c r="C174" s="67" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A175" s="54"/>
+      <c r="B175" s="66" t="s">
+        <v>855</v>
+      </c>
+      <c r="C175" s="67" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A176" s="54"/>
+      <c r="B176" s="66" t="s">
+        <v>856</v>
+      </c>
+      <c r="C176" s="67" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A177" s="54"/>
+      <c r="B177" s="66" t="s">
+        <v>857</v>
+      </c>
+      <c r="C177" s="67" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
+      <c r="A178" s="57" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B178" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="C178" s="58" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A179" s="54"/>
+      <c r="B179" s="66" t="s">
+        <v>860</v>
+      </c>
+      <c r="C179" s="66" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A180" s="54"/>
+      <c r="B180" s="66" t="s">
+        <v>862</v>
+      </c>
+      <c r="C180" s="66" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A181" s="54"/>
+      <c r="B181" s="66" t="s">
+        <v>863</v>
+      </c>
+      <c r="C181" s="66" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A182" s="54"/>
+      <c r="B182" s="66" t="s">
+        <v>864</v>
+      </c>
+      <c r="C182" s="66" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A183" s="54"/>
+      <c r="B183" s="66" t="s">
+        <v>865</v>
+      </c>
+      <c r="C183" s="66" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A184" s="54"/>
+      <c r="B184" s="66" t="s">
+        <v>866</v>
+      </c>
+      <c r="C184" s="66" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A185" s="54"/>
+      <c r="B185" s="66" t="s">
+        <v>867</v>
+      </c>
+      <c r="C185" s="66" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A186" s="54"/>
+      <c r="B186" s="66" t="s">
+        <v>869</v>
+      </c>
+      <c r="C186" s="66" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A187" s="54"/>
+      <c r="B187" s="66" t="s">
+        <v>870</v>
+      </c>
+      <c r="C187" s="66" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A188" s="54"/>
+      <c r="B188" s="66" t="s">
+        <v>871</v>
+      </c>
+      <c r="C188" s="66" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A189" s="54"/>
+      <c r="B189" s="66" t="s">
+        <v>872</v>
+      </c>
+      <c r="C189" s="66" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A190" s="57"/>
+      <c r="B190" s="58" t="s">
+        <v>873</v>
+      </c>
+      <c r="C190" s="57" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B191" s="61" t="s">
+        <v>875</v>
+      </c>
+      <c r="C191" s="61" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B192" s="63" t="s">
+        <v>877</v>
+      </c>
+      <c r="C192" s="63" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B193" s="61" t="s">
+        <v>879</v>
+      </c>
+      <c r="C193" s="61" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B194" s="63" t="s">
+        <v>881</v>
+      </c>
+      <c r="C194" s="63" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B195" s="61" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C195" s="61" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B196" s="63" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B16" s="64" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B17" s="62" t="s">
+      <c r="C196" s="65" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B197" s="61" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C197" s="61" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B198" s="63" t="s">
+        <v>884</v>
+      </c>
+      <c r="C198" s="63" t="s">
         <v>1699</v>
       </c>
-      <c r="C17" s="65" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="66" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B19" s="62" t="s">
-        <v>616</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59" t="s">
-        <v>618</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B21" s="65" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B22" s="64" t="s">
-        <v>621</v>
-      </c>
-      <c r="C22" s="64" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B199" s="61" t="s">
+        <v>885</v>
+      </c>
+      <c r="C199" s="61" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A200" s="57"/>
+      <c r="B200" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="C200" s="58" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B201" s="61" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C201" s="61" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B202" s="63" t="s">
+        <v>890</v>
+      </c>
+      <c r="C202" s="63" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B203" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="C203" s="61" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B204" s="63" t="s">
+        <v>673</v>
+      </c>
+      <c r="C204" s="63" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B205" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="C205" s="61" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B206" s="63" t="s">
+        <v>895</v>
+      </c>
+      <c r="C206" s="63" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B207" s="61" t="s">
+        <v>897</v>
+      </c>
+      <c r="C207" s="61" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B208" s="63" t="s">
+        <v>677</v>
+      </c>
+      <c r="C208" s="65" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B209" s="61" t="s">
+        <v>899</v>
+      </c>
+      <c r="C209" s="61" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B210" s="63" t="s">
+        <v>901</v>
+      </c>
+      <c r="C210" s="63" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B211" s="61" t="s">
+        <v>903</v>
+      </c>
+      <c r="C211" s="61" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B212" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="C212" s="63" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B213" s="61" t="s">
+        <v>680</v>
+      </c>
+      <c r="C213" s="61" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A214" s="57"/>
+      <c r="B214" s="58" t="s">
+        <v>905</v>
+      </c>
+      <c r="C214" s="58" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B215" s="61" t="s">
+        <v>907</v>
+      </c>
+      <c r="C215" s="61" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B216" s="63" t="s">
+        <v>908</v>
+      </c>
+      <c r="C216" s="63" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B217" s="61" t="s">
+        <v>909</v>
+      </c>
+      <c r="C217" s="61" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A218" s="57"/>
+      <c r="B218" s="58" t="s">
+        <v>911</v>
+      </c>
+      <c r="C218" s="57" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B219" s="64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C219" s="64" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B220" s="63" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C220" s="63" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B221" s="61" t="s">
+        <v>913</v>
+      </c>
+      <c r="C221" s="61" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B222" s="63" t="s">
+        <v>915</v>
+      </c>
+      <c r="C222" s="63" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A223" s="57"/>
+      <c r="B223" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="C223" s="58" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B224" s="61" t="s">
+        <v>919</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B225" s="63" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C225" s="65" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B226" s="61" t="s">
+        <v>920</v>
+      </c>
+      <c r="C226" s="64" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B227" s="63" t="s">
+        <v>921</v>
+      </c>
+      <c r="C227" s="63" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B228" s="61" t="s">
+        <v>923</v>
+      </c>
+      <c r="C228" s="61" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" s="59" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A229" s="57" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B229" s="58" t="s">
+        <v>925</v>
+      </c>
+      <c r="C229" s="58" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A230" s="54"/>
+      <c r="B230" s="66" t="s">
+        <v>927</v>
+      </c>
+      <c r="C230" s="66" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A231" s="54"/>
+      <c r="B231" s="66" t="s">
+        <v>929</v>
+      </c>
+      <c r="C231" s="66" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A232" s="57"/>
+      <c r="B232" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="C232" s="58" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B233" s="61" t="s">
+        <v>933</v>
+      </c>
+      <c r="C233" s="61" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B234" s="63" t="s">
+        <v>935</v>
+      </c>
+      <c r="C234" s="63" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B235" s="61" t="s">
+        <v>937</v>
+      </c>
+      <c r="C235" s="61" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B23" s="65" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59" t="s">
-        <v>623</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B25" s="62" t="s">
-        <v>625</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B26" s="64" t="s">
-        <v>626</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B27" s="62" t="s">
-        <v>627</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B28" s="64" t="s">
-        <v>628</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B29" s="62" t="s">
-        <v>629</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B30" s="64" t="s">
-        <v>630</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B31" s="62" t="s">
-        <v>631</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B32" s="64" t="s">
-        <v>632</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B33" s="62" t="s">
-        <v>633</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B34" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B35" s="62" t="s">
-        <v>635</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59" t="s">
-        <v>636</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B37" s="65" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B38" s="66" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B39" s="65" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="60" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
-      <c r="A40" s="58" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>641</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="55"/>
-      <c r="B41" s="67" t="s">
-        <v>643</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="55"/>
-      <c r="B42" s="67" t="s">
-        <v>644</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="55"/>
-      <c r="B43" s="67" t="s">
-        <v>645</v>
-      </c>
-      <c r="C43" s="67" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="55"/>
-      <c r="B44" s="54">
-        <v>0</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59" t="s">
-        <v>647</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B46" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B47" s="64" t="s">
-        <v>651</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59" t="s">
-        <v>653</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B49" s="62" t="s">
-        <v>655</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B50" s="64" t="s">
-        <v>657</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B51" s="62" t="s">
-        <v>659</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59" t="s">
-        <v>661</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B53" s="62" t="s">
-        <v>663</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B54" s="64" t="s">
-        <v>665</v>
-      </c>
-      <c r="C54" s="64" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B236" s="65" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C236" s="65" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B237" s="64" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C237" s="64" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B238" s="63" t="s">
+        <v>938</v>
+      </c>
+      <c r="C238" s="63" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B239" s="61" t="s">
+        <v>940</v>
+      </c>
+      <c r="C239" s="61" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B240" s="63" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C240" s="65" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B241" s="61" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C241" s="61" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B242" s="63" t="s">
+        <v>943</v>
+      </c>
+      <c r="C242" s="63" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B243" s="61" t="s">
+        <v>945</v>
+      </c>
+      <c r="C243" s="61" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B244" s="63" t="s">
+        <v>946</v>
+      </c>
+      <c r="C244" s="65" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B245" s="61" t="s">
+        <v>947</v>
+      </c>
+      <c r="C245" s="61" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B55" s="62" t="s">
-        <v>667</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B56" s="64" t="s">
-        <v>669</v>
-      </c>
-      <c r="C56" s="64" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B57" s="62" t="s">
-        <v>671</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B58" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B59" s="62" t="s">
-        <v>675</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B60" s="64" t="s">
-        <v>677</v>
-      </c>
-      <c r="C60" s="66" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B61" s="62" t="s">
-        <v>678</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B62" s="64" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B246" s="63" t="s">
+        <v>948</v>
+      </c>
+      <c r="C246" s="63" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B247" s="61" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C247" s="61" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B248" s="63" t="s">
+        <v>951</v>
+      </c>
+      <c r="C248" s="65" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B249" s="61" t="s">
+        <v>952</v>
+      </c>
+      <c r="C249" s="61" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B250" s="63" t="s">
+        <v>954</v>
+      </c>
+      <c r="C250" s="63" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A251" s="57"/>
+      <c r="B251" s="58" t="s">
+        <v>956</v>
+      </c>
+      <c r="C251" s="58" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B252" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="C252" s="64" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B253" s="63" t="s">
+        <v>959</v>
+      </c>
+      <c r="C253" s="65" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B254" s="61" t="s">
+        <v>960</v>
+      </c>
+      <c r="C254" s="61" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B255" s="63" t="s">
+        <v>962</v>
+      </c>
+      <c r="C255" s="63" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B256" s="61" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C256" s="64" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A257" s="57"/>
+      <c r="B257" s="58" t="s">
+        <v>964</v>
+      </c>
+      <c r="C257" s="58" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B258" s="61" t="s">
+        <v>966</v>
+      </c>
+      <c r="C258" s="61" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B259" s="63" t="s">
+        <v>968</v>
+      </c>
+      <c r="C259" s="63" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B260" s="61" t="s">
+        <v>970</v>
+      </c>
+      <c r="C260" s="61" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B261" s="63" t="s">
+        <v>972</v>
+      </c>
+      <c r="C261" s="63" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B262" s="61" t="s">
+        <v>974</v>
+      </c>
+      <c r="C262" s="64" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B263" s="63" t="s">
+        <v>975</v>
+      </c>
+      <c r="C263" s="63" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B264" s="61" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C264" s="61" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B265" s="63" t="s">
+        <v>978</v>
+      </c>
+      <c r="C265" s="63" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B266" s="64" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C266" s="61" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B267" s="65" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C267" s="65" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B268" s="61" t="s">
         <v>680</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C268" s="61" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A63" s="58"/>
-      <c r="B63" s="59" t="s">
-        <v>682</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B64" s="62" t="s">
-        <v>684</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B65" s="64" t="s">
-        <v>686</v>
-      </c>
-      <c r="C65" s="64" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B66" s="62" t="s">
-        <v>688</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A67" s="58"/>
-      <c r="B67" s="59" t="s">
-        <v>690</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B68" s="62" t="s">
-        <v>692</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B69" s="64" t="s">
-        <v>694</v>
-      </c>
-      <c r="C69" s="64" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B70" s="62" t="s">
-        <v>696</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B71" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="C71" s="64" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A72" s="58"/>
-      <c r="B72" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B73" s="62" t="s">
-        <v>702</v>
-      </c>
-      <c r="C73" s="62" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B74" s="64" t="s">
-        <v>704</v>
-      </c>
-      <c r="C74" s="64" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B75" s="62" t="s">
-        <v>706</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B76" s="64" t="s">
-        <v>708</v>
-      </c>
-      <c r="C76" s="64" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A77" s="58"/>
-      <c r="B77" s="59" t="s">
-        <v>710</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B78" s="62" t="s">
-        <v>712</v>
-      </c>
-      <c r="C78" s="62" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B79" s="64" t="s">
-        <v>714</v>
-      </c>
-      <c r="C79" s="64" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B80" s="62" t="s">
-        <v>716</v>
-      </c>
-      <c r="C80" s="62" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A81" s="58"/>
-      <c r="B81" s="59" t="s">
-        <v>718</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B82" s="62" t="s">
-        <v>720</v>
-      </c>
-      <c r="C82" s="62" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B83" s="64" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C83" s="66" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B84" s="62" t="s">
-        <v>722</v>
-      </c>
-      <c r="C84" s="62" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B85" s="64" t="s">
-        <v>724</v>
-      </c>
-      <c r="C85" s="64" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B86" s="62" t="s">
-        <v>726</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B87" s="64" t="s">
+    <row r="269" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
+      <c r="A269" s="57" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B269" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="C269" s="58" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A270" s="54"/>
+      <c r="B270" s="66" t="s">
         <v>1578</v>
       </c>
-      <c r="C87" s="66" t="s">
+      <c r="C270" s="67" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B88" s="62" t="s">
-        <v>680</v>
-      </c>
-      <c r="C88" s="62" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A89" s="58"/>
-      <c r="B89" s="59" t="s">
-        <v>727</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B90" s="62" t="s">
-        <v>729</v>
-      </c>
-      <c r="C90" s="62" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B91" s="64" t="s">
-        <v>731</v>
-      </c>
-      <c r="C91" s="64" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B92" s="62" t="s">
-        <v>733</v>
-      </c>
-      <c r="C92" s="62" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B93" s="64" t="s">
-        <v>735</v>
-      </c>
-      <c r="C93" s="64" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B94" s="62" t="s">
-        <v>737</v>
-      </c>
-      <c r="C94" s="62" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B95" s="64" t="s">
-        <v>739</v>
-      </c>
-      <c r="C95" s="64" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A96" s="58"/>
-      <c r="B96" s="59" t="s">
-        <v>741</v>
-      </c>
-      <c r="C96" s="59" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B97" s="62" t="s">
-        <v>597</v>
-      </c>
-      <c r="C97" s="62" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B98" s="64" t="s">
-        <v>595</v>
-      </c>
-      <c r="C98" s="64" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B99" s="62" t="s">
-        <v>743</v>
-      </c>
-      <c r="C99" s="65" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B100" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="C100" s="64" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A101" s="58" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B101" s="59" t="s">
-        <v>745</v>
-      </c>
-      <c r="C101" s="59" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A102" s="55"/>
-      <c r="B102" s="67" t="s">
-        <v>746</v>
-      </c>
-      <c r="C102" s="67" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A103" s="55"/>
-      <c r="B103" s="67" t="s">
-        <v>748</v>
-      </c>
-      <c r="C103" s="67" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A104" s="55"/>
-      <c r="B104" s="67" t="s">
-        <v>750</v>
-      </c>
-      <c r="C104" s="67" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A105" s="58"/>
-      <c r="B105" s="59" t="s">
-        <v>752</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B106" s="62" t="s">
-        <v>754</v>
-      </c>
-      <c r="C106" s="62" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B107" s="64" t="s">
-        <v>755</v>
-      </c>
-      <c r="C107" s="64" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B108" s="62" t="s">
-        <v>757</v>
-      </c>
-      <c r="C108" s="62" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B109" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="C109" s="66" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B110" s="62" t="s">
-        <v>760</v>
-      </c>
-      <c r="C110" s="65" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="60" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
-      <c r="A111" s="58" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B111" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="12.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A112" s="55"/>
-      <c r="B112" s="67" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C112" s="67" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A113" s="55"/>
-      <c r="B113" s="67" t="s">
-        <v>763</v>
-      </c>
-      <c r="C113" s="67" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A114" s="55"/>
-      <c r="B114" s="67" t="s">
-        <v>765</v>
-      </c>
-      <c r="C114" s="67" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A115" s="55"/>
-      <c r="B115" s="67" t="s">
-        <v>767</v>
-      </c>
-      <c r="C115" s="67" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A116" s="55"/>
-      <c r="B116" s="67" t="s">
-        <v>769</v>
-      </c>
-      <c r="C116" s="67" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A117" s="55"/>
-      <c r="B117" s="67" t="s">
-        <v>771</v>
-      </c>
-      <c r="C117" s="67" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A118" s="55"/>
-      <c r="B118" s="67" t="s">
-        <v>773</v>
-      </c>
-      <c r="C118" s="67" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A119" s="55"/>
-      <c r="B119" s="67" t="s">
-        <v>774</v>
-      </c>
-      <c r="C119" s="67" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A120" s="55"/>
-      <c r="B120" s="67" t="s">
-        <v>776</v>
-      </c>
-      <c r="C120" s="67" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A121" s="55"/>
-      <c r="B121" s="67" t="s">
-        <v>778</v>
-      </c>
-      <c r="C121" s="67" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A122" s="55"/>
-      <c r="B122" s="68" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C122" s="67" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A123" s="55"/>
-      <c r="B123" s="68" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C123" s="67" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A124" s="55"/>
-      <c r="B124" s="67" t="s">
-        <v>780</v>
-      </c>
-      <c r="C124" s="67" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A125" s="55"/>
-      <c r="B125" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="C125" s="67" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A126" s="55"/>
-      <c r="B126" s="67" t="s">
-        <v>784</v>
-      </c>
-      <c r="C126" s="67" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A127" s="55"/>
-      <c r="B127" s="67" t="s">
-        <v>786</v>
-      </c>
-      <c r="C127" s="67" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A128" s="55"/>
-      <c r="B128" s="67" t="s">
-        <v>788</v>
-      </c>
-      <c r="C128" s="67" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A129" s="55"/>
-      <c r="B129" s="67" t="s">
-        <v>790</v>
-      </c>
-      <c r="C129" s="67" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A130" s="55"/>
-      <c r="B130" s="67" t="s">
-        <v>792</v>
-      </c>
-      <c r="C130" s="67" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A131" s="55"/>
-      <c r="B131" s="67" t="s">
-        <v>794</v>
-      </c>
-      <c r="C131" s="67" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A132" s="55"/>
-      <c r="B132" s="67" t="s">
-        <v>796</v>
-      </c>
-      <c r="C132" s="67" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A133" s="55"/>
-      <c r="B133" s="67" t="s">
-        <v>798</v>
-      </c>
-      <c r="C133" s="67" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A134" s="55"/>
-      <c r="B134" s="67" t="s">
-        <v>799</v>
-      </c>
-      <c r="C134" s="67" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A135" s="55"/>
-      <c r="B135" s="67" t="s">
-        <v>800</v>
-      </c>
-      <c r="C135" s="67" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A136" s="55"/>
-      <c r="B136" s="67" t="s">
-        <v>801</v>
-      </c>
-      <c r="C136" s="67" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A137" s="55"/>
-      <c r="B137" s="68" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C137" s="68" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A138" s="55"/>
-      <c r="B138" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="C138" s="67" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A139" s="55"/>
-      <c r="B139" s="67" t="s">
-        <v>804</v>
-      </c>
-      <c r="C139" s="68" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A140" s="55"/>
-      <c r="B140" s="67" t="s">
-        <v>805</v>
-      </c>
-      <c r="C140" s="67" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A141" s="55"/>
-      <c r="B141" s="67" t="s">
-        <v>807</v>
-      </c>
-      <c r="C141" s="67" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A142" s="55"/>
-      <c r="B142" s="67" t="s">
-        <v>808</v>
-      </c>
-      <c r="C142" s="67" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A143" s="55"/>
-      <c r="B143" s="67" t="s">
-        <v>810</v>
-      </c>
-      <c r="C143" s="67" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A144" s="55"/>
-      <c r="B144" s="67" t="s">
-        <v>812</v>
-      </c>
-      <c r="C144" s="67" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A145" s="55"/>
-      <c r="B145" s="67" t="s">
-        <v>814</v>
-      </c>
-      <c r="C145" s="67" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A146" s="55"/>
-      <c r="B146" s="67" t="s">
-        <v>816</v>
-      </c>
-      <c r="C146" s="67" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A147" s="55"/>
-      <c r="B147" s="67" t="s">
-        <v>817</v>
-      </c>
-      <c r="C147" s="67" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A148" s="55"/>
-      <c r="B148" s="67" t="s">
-        <v>819</v>
-      </c>
-      <c r="C148" s="67" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A149" s="55"/>
-      <c r="B149" s="67" t="s">
-        <v>821</v>
-      </c>
-      <c r="C149" s="67" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A150" s="55"/>
-      <c r="B150" s="67" t="s">
-        <v>823</v>
-      </c>
-      <c r="C150" s="67" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A151" s="55"/>
-      <c r="B151" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="C151" s="67" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A152" s="58"/>
-      <c r="B152" s="59" t="s">
-        <v>825</v>
-      </c>
-      <c r="C152" s="59" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B153" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="C153" s="62" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B154" s="64" t="s">
-        <v>790</v>
-      </c>
-      <c r="C154" s="64" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B155" s="62" t="s">
-        <v>792</v>
-      </c>
-      <c r="C155" s="62" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B156" s="64" t="s">
-        <v>796</v>
-      </c>
-      <c r="C156" s="64" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="60" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A157" s="58" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B157" s="59" t="s">
-        <v>827</v>
-      </c>
-      <c r="C157" s="59" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A158" s="55"/>
-      <c r="B158" s="67" t="s">
-        <v>829</v>
-      </c>
-      <c r="C158" s="67" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A159" s="55"/>
-      <c r="B159" s="67" t="s">
-        <v>831</v>
-      </c>
-      <c r="C159" s="67" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A160" s="55"/>
-      <c r="B160" s="67" t="s">
-        <v>833</v>
-      </c>
-      <c r="C160" s="67" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A161" s="55"/>
-      <c r="B161" s="67" t="s">
-        <v>835</v>
-      </c>
-      <c r="C161" s="67" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A162" s="55"/>
-      <c r="B162" s="67" t="s">
-        <v>837</v>
-      </c>
-      <c r="C162" s="67" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A163" s="55"/>
-      <c r="B163" s="67" t="s">
-        <v>839</v>
-      </c>
-      <c r="C163" s="67" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A164" s="55"/>
-      <c r="B164" s="67" t="s">
-        <v>841</v>
-      </c>
-      <c r="C164" s="68" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="60" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
-      <c r="A165" s="58" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B165" s="59" t="s">
-        <v>842</v>
-      </c>
-      <c r="C165" s="59" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A166" s="55"/>
-      <c r="B166" s="67" t="s">
-        <v>844</v>
-      </c>
-      <c r="C166" s="67" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A167" s="55"/>
-      <c r="B167" s="67" t="s">
-        <v>846</v>
-      </c>
-      <c r="C167" s="67" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A168" s="55"/>
-      <c r="B168" s="67" t="s">
-        <v>848</v>
-      </c>
-      <c r="C168" s="67" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A169" s="55"/>
-      <c r="B169" s="67" t="s">
-        <v>849</v>
-      </c>
-      <c r="C169" s="67" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A170" s="55"/>
-      <c r="B170" s="67" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C170" s="68" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A171" s="55"/>
-      <c r="B171" s="67" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C171" s="68" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A172" s="55"/>
-      <c r="B172" s="67" t="s">
-        <v>850</v>
-      </c>
-      <c r="C172" s="67" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A173" s="55"/>
-      <c r="B173" s="67" t="s">
-        <v>852</v>
-      </c>
-      <c r="C173" s="67" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A174" s="55"/>
-      <c r="B174" s="67" t="s">
-        <v>854</v>
-      </c>
-      <c r="C174" s="68" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A175" s="55"/>
-      <c r="B175" s="67" t="s">
-        <v>855</v>
-      </c>
-      <c r="C175" s="68" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A176" s="55"/>
-      <c r="B176" s="67" t="s">
-        <v>856</v>
-      </c>
-      <c r="C176" s="68" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A177" s="55"/>
-      <c r="B177" s="67" t="s">
-        <v>857</v>
-      </c>
-      <c r="C177" s="68" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="60" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
-      <c r="A178" s="58" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B178" s="59" t="s">
-        <v>858</v>
-      </c>
-      <c r="C178" s="59" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A179" s="55"/>
-      <c r="B179" s="67" t="s">
-        <v>860</v>
-      </c>
-      <c r="C179" s="67" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A180" s="55"/>
-      <c r="B180" s="67" t="s">
-        <v>862</v>
-      </c>
-      <c r="C180" s="67" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A181" s="55"/>
-      <c r="B181" s="67" t="s">
-        <v>863</v>
-      </c>
-      <c r="C181" s="67" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A182" s="55"/>
-      <c r="B182" s="67" t="s">
-        <v>864</v>
-      </c>
-      <c r="C182" s="67" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A183" s="55"/>
-      <c r="B183" s="67" t="s">
-        <v>865</v>
-      </c>
-      <c r="C183" s="67" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A184" s="55"/>
-      <c r="B184" s="67" t="s">
-        <v>866</v>
-      </c>
-      <c r="C184" s="67" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A185" s="55"/>
-      <c r="B185" s="67" t="s">
-        <v>867</v>
-      </c>
-      <c r="C185" s="67" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A186" s="55"/>
-      <c r="B186" s="67" t="s">
-        <v>869</v>
-      </c>
-      <c r="C186" s="67" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A187" s="55"/>
-      <c r="B187" s="67" t="s">
-        <v>870</v>
-      </c>
-      <c r="C187" s="67" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A188" s="55"/>
-      <c r="B188" s="67" t="s">
-        <v>871</v>
-      </c>
-      <c r="C188" s="67" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A189" s="55"/>
-      <c r="B189" s="67" t="s">
-        <v>872</v>
-      </c>
-      <c r="C189" s="67" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A190" s="58"/>
-      <c r="B190" s="59" t="s">
-        <v>873</v>
-      </c>
-      <c r="C190" s="58" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B191" s="62" t="s">
-        <v>875</v>
-      </c>
-      <c r="C191" s="62" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B192" s="64" t="s">
-        <v>877</v>
-      </c>
-      <c r="C192" s="64" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B193" s="62" t="s">
-        <v>879</v>
-      </c>
-      <c r="C193" s="62" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B194" s="64" t="s">
-        <v>881</v>
-      </c>
-      <c r="C194" s="64" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B195" s="62" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C195" s="62" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B196" s="64" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C196" s="66" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B197" s="62" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C197" s="62" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B198" s="64" t="s">
-        <v>884</v>
-      </c>
-      <c r="C198" s="64" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B199" s="62" t="s">
-        <v>885</v>
-      </c>
-      <c r="C199" s="62" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A200" s="58"/>
-      <c r="B200" s="59" t="s">
-        <v>887</v>
-      </c>
-      <c r="C200" s="59" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B201" s="62" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C201" s="62" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B202" s="64" t="s">
-        <v>890</v>
-      </c>
-      <c r="C202" s="64" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B203" s="62" t="s">
-        <v>892</v>
-      </c>
-      <c r="C203" s="62" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B204" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="C204" s="64" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B205" s="62" t="s">
-        <v>675</v>
-      </c>
-      <c r="C205" s="62" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B206" s="64" t="s">
-        <v>895</v>
-      </c>
-      <c r="C206" s="64" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B207" s="62" t="s">
-        <v>897</v>
-      </c>
-      <c r="C207" s="62" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B208" s="64" t="s">
-        <v>677</v>
-      </c>
-      <c r="C208" s="66" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B209" s="62" t="s">
-        <v>899</v>
-      </c>
-      <c r="C209" s="62" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B210" s="64" t="s">
-        <v>901</v>
-      </c>
-      <c r="C210" s="64" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B211" s="62" t="s">
-        <v>903</v>
-      </c>
-      <c r="C211" s="62" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B212" s="64" t="s">
-        <v>678</v>
-      </c>
-      <c r="C212" s="64" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B213" s="62" t="s">
-        <v>680</v>
-      </c>
-      <c r="C213" s="62" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A214" s="58"/>
-      <c r="B214" s="59" t="s">
-        <v>905</v>
-      </c>
-      <c r="C214" s="59" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B215" s="62" t="s">
-        <v>907</v>
-      </c>
-      <c r="C215" s="62" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B216" s="64" t="s">
-        <v>908</v>
-      </c>
-      <c r="C216" s="64" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B217" s="62" t="s">
-        <v>909</v>
-      </c>
-      <c r="C217" s="62" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A218" s="58"/>
-      <c r="B218" s="59" t="s">
-        <v>911</v>
-      </c>
-      <c r="C218" s="58" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B219" s="65" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C219" s="65" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B220" s="64" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C220" s="64" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B221" s="62" t="s">
-        <v>913</v>
-      </c>
-      <c r="C221" s="62" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B222" s="64" t="s">
-        <v>915</v>
-      </c>
-      <c r="C222" s="64" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A223" s="58"/>
-      <c r="B223" s="59" t="s">
-        <v>917</v>
-      </c>
-      <c r="C223" s="59" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B224" s="62" t="s">
-        <v>919</v>
-      </c>
-      <c r="C224" s="65" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B225" s="64" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C225" s="66" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B226" s="62" t="s">
-        <v>920</v>
-      </c>
-      <c r="C226" s="65" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B227" s="64" t="s">
-        <v>921</v>
-      </c>
-      <c r="C227" s="64" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B228" s="62" t="s">
-        <v>923</v>
-      </c>
-      <c r="C228" s="62" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" s="60" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
-      <c r="A229" s="58" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B229" s="59" t="s">
-        <v>925</v>
-      </c>
-      <c r="C229" s="59" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A230" s="55"/>
-      <c r="B230" s="67" t="s">
-        <v>927</v>
-      </c>
-      <c r="C230" s="67" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A231" s="55"/>
-      <c r="B231" s="67" t="s">
-        <v>929</v>
-      </c>
-      <c r="C231" s="67" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A232" s="58"/>
-      <c r="B232" s="59" t="s">
-        <v>931</v>
-      </c>
-      <c r="C232" s="59" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B233" s="62" t="s">
-        <v>933</v>
-      </c>
-      <c r="C233" s="62" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B234" s="64" t="s">
-        <v>935</v>
-      </c>
-      <c r="C234" s="64" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B235" s="62" t="s">
-        <v>937</v>
-      </c>
-      <c r="C235" s="62" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B236" s="66" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C236" s="66" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B237" s="65" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C237" s="65" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B238" s="64" t="s">
-        <v>938</v>
-      </c>
-      <c r="C238" s="64" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B239" s="62" t="s">
-        <v>940</v>
-      </c>
-      <c r="C239" s="62" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B240" s="64" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C240" s="66" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B241" s="62" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C241" s="62" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B242" s="64" t="s">
-        <v>943</v>
-      </c>
-      <c r="C242" s="64" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B243" s="62" t="s">
-        <v>945</v>
-      </c>
-      <c r="C243" s="62" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B244" s="64" t="s">
-        <v>946</v>
-      </c>
-      <c r="C244" s="66" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B245" s="62" t="s">
-        <v>947</v>
-      </c>
-      <c r="C245" s="62" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B246" s="64" t="s">
-        <v>948</v>
-      </c>
-      <c r="C246" s="64" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B247" s="62" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C247" s="62" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B248" s="64" t="s">
-        <v>951</v>
-      </c>
-      <c r="C248" s="66" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B249" s="62" t="s">
-        <v>952</v>
-      </c>
-      <c r="C249" s="62" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B250" s="64" t="s">
-        <v>954</v>
-      </c>
-      <c r="C250" s="64" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A251" s="58"/>
-      <c r="B251" s="59" t="s">
-        <v>956</v>
-      </c>
-      <c r="C251" s="59" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B252" s="62" t="s">
-        <v>958</v>
-      </c>
-      <c r="C252" s="65" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B253" s="64" t="s">
-        <v>959</v>
-      </c>
-      <c r="C253" s="66" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B254" s="62" t="s">
-        <v>960</v>
-      </c>
-      <c r="C254" s="62" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B255" s="64" t="s">
-        <v>962</v>
-      </c>
-      <c r="C255" s="64" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B256" s="62" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C256" s="65" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A257" s="58"/>
-      <c r="B257" s="59" t="s">
-        <v>964</v>
-      </c>
-      <c r="C257" s="59" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B258" s="62" t="s">
-        <v>966</v>
-      </c>
-      <c r="C258" s="62" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B259" s="64" t="s">
-        <v>968</v>
-      </c>
-      <c r="C259" s="64" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B260" s="62" t="s">
-        <v>970</v>
-      </c>
-      <c r="C260" s="62" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B261" s="64" t="s">
-        <v>972</v>
-      </c>
-      <c r="C261" s="64" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B262" s="62" t="s">
-        <v>974</v>
-      </c>
-      <c r="C262" s="65" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B263" s="64" t="s">
-        <v>975</v>
-      </c>
-      <c r="C263" s="64" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B264" s="62" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C264" s="62" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B265" s="64" t="s">
-        <v>978</v>
-      </c>
-      <c r="C265" s="64" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B266" s="65" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C266" s="62" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B267" s="66" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C267" s="66" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B268" s="62" t="s">
-        <v>680</v>
-      </c>
-      <c r="C268" s="62" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" s="60" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
-      <c r="A269" s="58" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B269" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="C269" s="59" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="11.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A270" s="55"/>
-      <c r="B270" s="67" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C270" s="68" t="s">
-        <v>1033</v>
-      </c>
-    </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A271" s="55"/>
-      <c r="B271" s="67" t="s">
+      <c r="A271" s="54"/>
+      <c r="B271" s="66" t="s">
         <v>982</v>
       </c>
-      <c r="C271" s="67" t="s">
+      <c r="C271" s="66" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A272" s="55"/>
-      <c r="B272" s="67" t="s">
+      <c r="A272" s="54"/>
+      <c r="B272" s="66" t="s">
         <v>984</v>
       </c>
-      <c r="C272" s="67" t="s">
+      <c r="C272" s="66" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A273" s="55"/>
-      <c r="B273" s="67" t="s">
+      <c r="A273" s="54"/>
+      <c r="B273" s="66" t="s">
         <v>986</v>
       </c>
-      <c r="C273" s="67" t="s">
+      <c r="C273" s="66" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A274" s="55"/>
-      <c r="B274" s="67" t="s">
+      <c r="A274" s="54"/>
+      <c r="B274" s="66" t="s">
         <v>988</v>
       </c>
-      <c r="C274" s="67" t="s">
+      <c r="C274" s="66" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A275" s="55"/>
-      <c r="B275" s="67" t="s">
+      <c r="A275" s="54"/>
+      <c r="B275" s="66" t="s">
         <v>990</v>
       </c>
-      <c r="C275" s="67" t="s">
+      <c r="C275" s="66" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A276" s="55"/>
-      <c r="B276" s="67" t="s">
+      <c r="A276" s="54"/>
+      <c r="B276" s="66" t="s">
         <v>992</v>
       </c>
-      <c r="C276" s="67" t="s">
+      <c r="C276" s="66" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A277" s="55"/>
-      <c r="B277" s="67" t="s">
+      <c r="A277" s="54"/>
+      <c r="B277" s="66" t="s">
         <v>994</v>
       </c>
-      <c r="C277" s="67" t="s">
+      <c r="C277" s="66" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A278" s="55"/>
-      <c r="B278" s="67" t="s">
+      <c r="A278" s="54"/>
+      <c r="B278" s="66" t="s">
         <v>996</v>
       </c>
-      <c r="C278" s="67" t="s">
+      <c r="C278" s="66" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A279" s="55"/>
-      <c r="B279" s="67" t="s">
+      <c r="A279" s="54"/>
+      <c r="B279" s="66" t="s">
         <v>998</v>
       </c>
-      <c r="C279" s="67" t="s">
+      <c r="C279" s="66" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A280" s="55"/>
-      <c r="B280" s="67" t="s">
+      <c r="A280" s="54"/>
+      <c r="B280" s="66" t="s">
         <v>1000</v>
       </c>
-      <c r="C280" s="67" t="s">
+      <c r="C280" s="66" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A281" s="55"/>
-      <c r="B281" s="67" t="s">
+      <c r="A281" s="54"/>
+      <c r="B281" s="66" t="s">
         <v>1002</v>
       </c>
-      <c r="C281" s="67" t="s">
+      <c r="C281" s="66" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A282" s="55"/>
-      <c r="B282" s="67" t="s">
+      <c r="A282" s="54"/>
+      <c r="B282" s="66" t="s">
         <v>1004</v>
       </c>
-      <c r="C282" s="67" t="s">
+      <c r="C282" s="66" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="60" customFormat="1" ht="12" x14ac:dyDescent="0.65">
-      <c r="A283" s="58"/>
-      <c r="B283" s="59" t="s">
+    <row r="283" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
+      <c r="A283" s="57"/>
+      <c r="B283" s="58" t="s">
         <v>1006</v>
       </c>
-      <c r="C283" s="59" t="s">
+      <c r="C283" s="58" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B284" s="62" t="s">
+      <c r="B284" s="61" t="s">
         <v>1008</v>
       </c>
-      <c r="C284" s="62" t="s">
+      <c r="C284" s="61" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B285" s="64" t="s">
+      <c r="B285" s="63" t="s">
         <v>1010</v>
       </c>
-      <c r="C285" s="64" t="s">
+      <c r="C285" s="63" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B286" s="62" t="s">
+      <c r="B286" s="61" t="s">
         <v>1012</v>
       </c>
-      <c r="C286" s="62" t="s">
+      <c r="C286" s="61" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B287" s="64" t="s">
+      <c r="B287" s="63" t="s">
         <v>1014</v>
       </c>
-      <c r="C287" s="64" t="s">
+      <c r="C287" s="63" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B288" s="62" t="s">
+      <c r="B288" s="61" t="s">
         <v>1016</v>
       </c>
-      <c r="C288" s="62" t="s">
+      <c r="C288" s="61" t="s">
         <v>1017</v>
       </c>
     </row>

--- a/additional-ig-content/Mapping_Concept_IG.xlsx
+++ b/additional-ig-content/Mapping_Concept_IG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\michaela\github\ch-epreg\additional-ig-content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B8C51-97BD-4DC8-9D32-0825F46DDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D9E95E-AB76-4DE5-A920-8CC81C6AB470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="1773">
   <si>
     <r>
       <rPr>
@@ -13426,9 +13426,6 @@
     <t>Encounter.participant.individual
 -&gt; Observation.performer
 -&gt; CH EPREG PractitionerRole: Treating Healthcare Provider</t>
-  </si>
-  <si>
-    <t>letzte von ersten Prios</t>
   </si>
   <si>
     <t>13.4.1. Identifikation</t>
@@ -14348,6 +14345,56 @@
   </si>
   <si>
     <t>Notes on Modeling Considerations</t>
+  </si>
+  <si>
+    <t>Coverage.payor -&gt; Organization.name</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:insuranceNumber</t>
+  </si>
+  <si>
+    <t>-&gt; CH EPREG Coverage: Basic Insurance
+Coverage.type = 1 Krankenversicherung (obligat.)</t>
+  </si>
+  <si>
+    <t>-&gt; CH EPREG Coverage: Supplementary Insurance
+Coverage.type = ZV Zusatzversicherung</t>
+  </si>
+  <si>
+    <t>Composition.section:adminInfoMother.section:insurance
+.entry:basic
+.entry:supplementary</t>
+  </si>
+  <si>
+    <t>Patient.contact</t>
+  </si>
+  <si>
+    <t>CH EPREG Patient: Mother
+Patient.link:parent -&gt; CH EPREG RelatedPerson: Parent</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship</t>
+  </si>
+  <si>
+    <t>RelatedPerson.name</t>
+  </si>
+  <si>
+    <t>RelatedPerson.name.family</t>
+  </si>
+  <si>
+    <t>RelatedPerson.name.given</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:citizenship</t>
+  </si>
+  <si>
+    <t>RelatedPerson.communication:languageOfCorrespondence</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:note</t>
   </si>
 </sst>
 </file>
@@ -14598,7 +14645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -14814,6 +14861,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15128,8 +15181,8 @@
   <dimension ref="A1:H480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34765625" defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
@@ -15146,28 +15199,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="68.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="23" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1751</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>1752</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="6" t="s">
         <v>1753</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="23" t="s">
         <v>1754</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>1755</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="14" t="s">
         <v>1756</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>1757</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -15221,10 +15274,10 @@
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="46" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -15655,8 +15708,8 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A25" s="73" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -15670,9 +15723,11 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="G25" s="42" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A26" s="29" t="s">
         <v>44</v>
       </c>
@@ -15687,7 +15742,9 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="42"/>
+      <c r="G26" s="72" t="s">
+        <v>1760</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="29" t="s">
@@ -15706,7 +15763,9 @@
         <v>3</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="42"/>
+      <c r="G27" s="42" t="s">
+        <v>1758</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="29" t="s">
@@ -15725,9 +15784,11 @@
         <v>3</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="G28" s="42" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="29" t="s">
         <v>47</v>
       </c>
@@ -15742,7 +15803,9 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="72" t="s">
+        <v>1761</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="29" t="s">
@@ -15761,7 +15824,9 @@
         <v>3</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="42"/>
+      <c r="G30" s="42" t="s">
+        <v>1758</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="29" t="s">
@@ -15780,10 +15845,12 @@
         <v>3</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="29" t="s">
+      <c r="G31" s="42" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A32" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -15798,7 +15865,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="43" t="s">
-        <v>1590</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -15818,9 +15885,11 @@
         <v>9</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>1610</v>
-      </c>
-      <c r="G33" s="43"/>
+        <v>1609</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>1765</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A34" s="29" t="s">
@@ -15837,7 +15906,9 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="43"/>
+      <c r="G34" s="43" t="s">
+        <v>1766</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A35" s="29" t="s">
@@ -15856,7 +15927,9 @@
         <v>3</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="43"/>
+      <c r="G35" s="43" t="s">
+        <v>1767</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A36" s="29" t="s">
@@ -15875,7 +15948,9 @@
         <v>3</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="43"/>
+      <c r="G36" s="43" t="s">
+        <v>1768</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A37" s="29" t="s">
@@ -15894,7 +15969,9 @@
         <v>4</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="43"/>
+      <c r="G37" s="43" t="s">
+        <v>1769</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A38" s="29" t="s">
@@ -15913,7 +15990,9 @@
         <v>3</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="43"/>
+      <c r="G38" s="43" t="s">
+        <v>1770</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A39" s="29" t="s">
@@ -15932,7 +16011,9 @@
         <v>3</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="43"/>
+      <c r="G39" s="43" t="s">
+        <v>1771</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A40" s="29" t="s">
@@ -15951,10 +16032,12 @@
         <v>3</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="43"/>
+      <c r="G40" s="43" t="s">
+        <v>1772</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="73" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -15968,7 +16051,9 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="43"/>
+      <c r="G41" s="43" t="s">
+        <v>1763</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A42" s="29" t="s">
@@ -16140,7 +16225,7 @@
       <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="15" t="s">
@@ -16155,7 +16240,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="43" t="s">
-        <v>1590</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -16363,7 +16448,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>1552</v>
@@ -16428,7 +16513,7 @@
         <v>8</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>1555</v>
@@ -16559,10 +16644,10 @@
         <v>1578</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -16861,7 +16946,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17235,7 +17320,7 @@
         <v>9</v>
       </c>
       <c r="F107" s="34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17325,7 +17410,7 @@
         <v>9</v>
       </c>
       <c r="F112" s="35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17399,7 +17484,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="35" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17435,7 +17520,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17559,7 +17644,7 @@
         <v>7</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="41.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -17615,7 +17700,7 @@
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17640,7 +17725,7 @@
     </row>
     <row r="130" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A130" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>1186</v>
@@ -17763,7 +17848,7 @@
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17788,7 +17873,7 @@
     </row>
     <row r="138" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A138" s="29" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>1194</v>
@@ -17861,7 +17946,7 @@
         <v>9</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17913,7 +17998,7 @@
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -17938,7 +18023,7 @@
     </row>
     <row r="146" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A146" s="29" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>1202</v>
@@ -18011,7 +18096,7 @@
         <v>9</v>
       </c>
       <c r="F149" s="34" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18083,7 +18168,7 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="36" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18108,7 +18193,7 @@
     </row>
     <row r="155" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A155" s="18" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>1211</v>
@@ -18180,7 +18265,7 @@
     </row>
     <row r="159" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A159" s="18" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>1215</v>
@@ -18249,7 +18334,7 @@
         <v>9</v>
       </c>
       <c r="F162" s="35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18489,7 +18574,7 @@
         <v>9</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18604,7 +18689,7 @@
       </c>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:8" s="9" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A182" s="50" t="s">
         <v>226</v>
       </c>
@@ -18711,7 +18796,7 @@
         <v>4</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18749,7 +18834,7 @@
         <v>9</v>
       </c>
       <c r="F189" s="34" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18805,7 +18890,7 @@
         <v>4</v>
       </c>
       <c r="F192" s="37" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18955,7 +19040,7 @@
         <v>8</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -18991,7 +19076,7 @@
         <v>9</v>
       </c>
       <c r="F202" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19027,7 +19112,7 @@
       </c>
       <c r="E204" s="4"/>
       <c r="F204" s="37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -19052,7 +19137,7 @@
     </row>
     <row r="206" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A206" s="29" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>1262</v>
@@ -19107,7 +19192,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="29" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="8" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -19143,7 +19228,7 @@
         <v>1565</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.65">
@@ -19162,10 +19247,10 @@
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -19227,7 +19312,7 @@
         <v>9</v>
       </c>
       <c r="F214" s="33" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G214" s="13" t="s">
         <v>1566</v>
@@ -19250,7 +19335,7 @@
         <v>9</v>
       </c>
       <c r="F215" s="33" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G215" s="13" t="s">
         <v>1566</v>
@@ -19258,7 +19343,7 @@
     </row>
     <row r="216" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A216" s="19" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>1272</v>
@@ -19272,7 +19357,7 @@
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19313,7 +19398,7 @@
         <v>9</v>
       </c>
       <c r="F218" s="33" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G218" s="13" t="s">
         <v>1566</v>
@@ -19337,10 +19422,10 @@
         <v>271</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19402,7 +19487,7 @@
         <v>9</v>
       </c>
       <c r="F222" s="33" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G222" s="13" t="s">
         <v>1569</v>
@@ -19424,7 +19509,7 @@
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="13" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -19443,10 +19528,10 @@
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="13" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H224" s="13" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19469,7 +19554,7 @@
         <v>278</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -19489,10 +19574,10 @@
         <v>9</v>
       </c>
       <c r="F226" s="33" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="20.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -19512,13 +19597,13 @@
         <v>9</v>
       </c>
       <c r="F227" s="33" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.65">
@@ -19541,7 +19626,7 @@
         <v>282</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -19561,7 +19646,7 @@
         <v>9</v>
       </c>
       <c r="F229" s="35" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -19633,7 +19718,7 @@
         <v>9</v>
       </c>
       <c r="F233" s="38" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="234" spans="1:8" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -19980,7 +20065,7 @@
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
       <c r="G253" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -20003,7 +20088,7 @@
         <v>308</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H254" s="69"/>
     </row>
@@ -20064,13 +20149,13 @@
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="19" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H257" s="13" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -20093,7 +20178,7 @@
         <v>1577</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -20116,7 +20201,7 @@
         <v>1586</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20135,10 +20220,10 @@
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
       <c r="G260" s="13" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H260" s="13" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20161,10 +20246,10 @@
         <v>314</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H261" s="13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20187,7 +20272,7 @@
         <v>316</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H262" s="71"/>
     </row>
@@ -20206,13 +20291,13 @@
       </c>
       <c r="E263" s="12"/>
       <c r="F263" s="28" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="39.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20235,7 +20320,7 @@
         <v>319</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.65">
@@ -20258,7 +20343,7 @@
         <v>321</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20279,7 +20364,7 @@
         <v>323</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -20302,7 +20387,7 @@
         <v>325</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -20325,7 +20410,7 @@
         <v>327</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -20346,7 +20431,7 @@
       </c>
       <c r="F269" s="12"/>
       <c r="G269" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -20367,7 +20452,7 @@
       </c>
       <c r="F270" s="12"/>
       <c r="G270" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20388,7 +20473,7 @@
       </c>
       <c r="F271" s="12"/>
       <c r="G271" s="13" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20396,7 +20481,7 @@
         <v>331</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C272" s="24" t="s">
         <v>13</v>
@@ -20411,10 +20496,10 @@
         <v>332</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H272" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20435,7 +20520,7 @@
       </c>
       <c r="F273" s="12"/>
       <c r="G273" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="70.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20454,10 +20539,10 @@
       <c r="E274" s="12"/>
       <c r="F274" s="12"/>
       <c r="G274" s="13" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H274" s="13" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20477,7 +20562,7 @@
         <v>9</v>
       </c>
       <c r="F275" s="33" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G275" s="13" t="s">
         <v>1569</v>
@@ -20501,7 +20586,7 @@
       </c>
       <c r="F276" s="12"/>
       <c r="G276" s="13" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="186.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -20509,7 +20594,7 @@
         <v>1588</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C277" s="24" t="s">
         <v>30</v>
@@ -20520,15 +20605,15 @@
       <c r="E277" s="12"/>
       <c r="F277" s="12"/>
       <c r="G277" s="13" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H277" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A278" s="19" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>1331</v>
@@ -20546,15 +20631,15 @@
         <v>337</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="67.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A279" s="19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B279" s="19" t="s">
         <v>1639</v>
-      </c>
-      <c r="B279" s="19" t="s">
-        <v>1640</v>
       </c>
       <c r="C279" s="24" t="s">
         <v>13</v>
@@ -20566,10 +20651,10 @@
         <v>3</v>
       </c>
       <c r="F279" s="28" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G279" s="40" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20589,10 +20674,10 @@
         <v>3</v>
       </c>
       <c r="F280" s="28" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G280" s="40" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20615,7 +20700,7 @@
         <v>1575</v>
       </c>
       <c r="G281" s="13" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -20730,7 +20815,7 @@
         <v>347</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -20751,7 +20836,7 @@
       </c>
       <c r="F288" s="12"/>
       <c r="G288" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="55.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -20791,7 +20876,7 @@
       </c>
       <c r="F290" s="12"/>
       <c r="G290" s="22" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -20913,7 +20998,7 @@
       <c r="E296" s="12"/>
       <c r="F296" s="12"/>
       <c r="G296" s="22" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -21037,7 +21122,7 @@
       <c r="E302" s="12"/>
       <c r="F302" s="12"/>
       <c r="G302" s="22" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="25.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -21206,7 +21291,7 @@
       </c>
       <c r="E311" s="5"/>
       <c r="F311" s="18" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -21231,7 +21316,7 @@
     </row>
     <row r="313" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A313" s="18" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>1364</v>
@@ -21264,7 +21349,7 @@
       </c>
       <c r="E314" s="4"/>
       <c r="F314" s="68" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -21289,7 +21374,7 @@
     </row>
     <row r="316" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A316" s="29" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>1367</v>
@@ -21340,7 +21425,7 @@
         <v>9</v>
       </c>
       <c r="F318" s="35" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -21492,7 +21577,7 @@
         <v>9</v>
       </c>
       <c r="F326" s="32" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.65">
@@ -21568,7 +21653,7 @@
         <v>9</v>
       </c>
       <c r="F330" s="35" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -21626,7 +21711,7 @@
         <v>9</v>
       </c>
       <c r="F333" s="34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -22179,7 +22264,7 @@
     </row>
     <row r="364" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A364" s="29" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>1414</v>
@@ -22192,7 +22277,7 @@
       </c>
       <c r="E364" s="4"/>
       <c r="F364" s="29" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -22217,7 +22302,7 @@
     </row>
     <row r="366" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A366" s="29" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>1416</v>
@@ -22708,7 +22793,7 @@
       </c>
       <c r="E393" s="5"/>
       <c r="F393" s="18" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -22733,7 +22818,7 @@
     </row>
     <row r="395" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A395" s="18" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>1444</v>
@@ -22800,7 +22885,7 @@
         <v>9</v>
       </c>
       <c r="F398" s="38" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -22820,7 +22905,7 @@
         <v>6</v>
       </c>
       <c r="F399" s="18" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -22860,7 +22945,7 @@
         <v>9</v>
       </c>
       <c r="F401" s="32" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -23150,7 +23235,7 @@
         <v>9</v>
       </c>
       <c r="F417" s="32" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -23298,7 +23383,7 @@
         <v>9</v>
       </c>
       <c r="F425" s="32" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
@@ -23318,7 +23403,7 @@
         <v>9</v>
       </c>
       <c r="F426" s="39" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -23338,7 +23423,7 @@
         <v>9</v>
       </c>
       <c r="F427" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -23378,7 +23463,7 @@
         <v>9</v>
       </c>
       <c r="F429" s="34" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -23476,7 +23561,7 @@
         <v>9</v>
       </c>
       <c r="F434" s="35" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -23496,7 +23581,7 @@
         <v>9</v>
       </c>
       <c r="F435" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24022,7 +24107,7 @@
       </c>
       <c r="E464" s="4"/>
       <c r="F464" s="37" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24194,7 +24279,7 @@
         <v>9</v>
       </c>
       <c r="F473" s="34" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24214,7 +24299,7 @@
         <v>9</v>
       </c>
       <c r="F474" s="35" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24234,7 +24319,7 @@
         <v>9</v>
       </c>
       <c r="F475" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.65">
@@ -24254,7 +24339,7 @@
         <v>4</v>
       </c>
       <c r="F476" s="29" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -24348,8 +24433,8 @@
   <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.75" x14ac:dyDescent="0.65"/>
@@ -24455,7 +24540,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B12" s="63" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>609</v>
@@ -24482,12 +24567,12 @@
         <v>1016</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B16" s="63" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>1017</v>
@@ -24495,7 +24580,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B17" s="61" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>1018</v>
@@ -24547,7 +24632,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
@@ -24682,7 +24767,7 @@
     </row>
     <row r="40" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
       <c r="A40" s="57" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B40" s="58" t="s">
         <v>637</v>
@@ -25041,7 +25126,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B83" s="63" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C83" s="65" t="s">
         <v>1027</v>
@@ -25187,13 +25272,13 @@
     </row>
     <row r="101" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
       <c r="A101" s="57" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B101" s="58" t="s">
         <v>741</v>
       </c>
       <c r="C101" s="58" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.65">
@@ -25274,7 +25359,7 @@
     </row>
     <row r="111" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
       <c r="A111" s="57" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B111" s="58" t="s">
         <v>757</v>
@@ -25289,7 +25374,7 @@
         <v>1585</v>
       </c>
       <c r="C112" s="66" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.65">
@@ -25379,7 +25464,7 @@
         <v>1033</v>
       </c>
       <c r="C122" s="66" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.65">
@@ -25388,7 +25473,7 @@
         <v>1034</v>
       </c>
       <c r="C123" s="66" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.65">
@@ -25686,7 +25771,7 @@
     </row>
     <row r="157" spans="1:3" s="59" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A157" s="57" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B157" s="58" t="s">
         <v>823</v>
@@ -25760,7 +25845,7 @@
     </row>
     <row r="165" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
       <c r="A165" s="57" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B165" s="58" t="s">
         <v>838</v>
@@ -25793,7 +25878,7 @@
         <v>844</v>
       </c>
       <c r="C168" s="66" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.65">
@@ -25802,13 +25887,13 @@
         <v>845</v>
       </c>
       <c r="C169" s="66" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A170" s="54"/>
       <c r="B170" s="66" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C170" s="67" t="s">
         <v>1039</v>
@@ -25817,7 +25902,7 @@
     <row r="171" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A171" s="54"/>
       <c r="B171" s="66" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C171" s="67" t="s">
         <v>1040</v>
@@ -25879,7 +25964,7 @@
     </row>
     <row r="178" spans="1:3" s="59" customFormat="1" ht="23.5" x14ac:dyDescent="0.65">
       <c r="A178" s="57" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B178" s="58" t="s">
         <v>854</v>
@@ -26030,7 +26115,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B195" s="61" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C195" s="61" t="s">
         <v>879</v>
@@ -26038,7 +26123,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B196" s="63" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C196" s="65" t="s">
         <v>1045</v>
@@ -26046,10 +26131,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B197" s="61" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C197" s="61" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.65">
@@ -26057,7 +26142,7 @@
         <v>880</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.65">
@@ -26079,7 +26164,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B201" s="61" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C201" s="61" t="s">
         <v>885</v>
@@ -26233,10 +26318,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B220" s="63" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C220" s="63" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.65">
@@ -26274,7 +26359,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B225" s="63" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C225" s="65" t="s">
         <v>1049</v>
@@ -26306,7 +26391,7 @@
     </row>
     <row r="229" spans="1:3" s="59" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A229" s="57" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B229" s="58" t="s">
         <v>921</v>
@@ -26400,7 +26485,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B240" s="63" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C240" s="65" t="s">
         <v>1055</v>
@@ -26408,7 +26493,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B241" s="61" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C241" s="61" t="s">
         <v>938</v>
@@ -26427,7 +26512,7 @@
         <v>941</v>
       </c>
       <c r="C243" s="61" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.65">
@@ -26456,7 +26541,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B247" s="61" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C247" s="61" t="s">
         <v>946</v>
@@ -26529,7 +26614,7 @@
     </row>
     <row r="256" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B256" s="61" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C256" s="64" t="s">
         <v>1060</v>
@@ -26594,7 +26679,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.65">
       <c r="B264" s="61" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C264" s="61" t="s">
         <v>973</v>
@@ -26613,7 +26698,7 @@
         <v>1062</v>
       </c>
       <c r="C266" s="61" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.65">
@@ -26634,7 +26719,7 @@
     </row>
     <row r="269" spans="1:3" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.65">
       <c r="A269" s="57" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B269" s="58" t="s">
         <v>976</v>
